--- a/testData/foundry_LoginData.xlsx
+++ b/testData/foundry_LoginData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>abhishek@101reporters.com</t>
+    <t>abhishek1@101reporters.com</t>
   </si>
   <si>
     <t>valid</t>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -111,6 +114,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -346,7 +352,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>9.87654321E8</v>
+        <v>9.876543211E9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -392,6 +398,11 @@
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
